--- a/Test scenarios for Pen.xlsx
+++ b/Test scenarios for Pen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Bhakti Testing 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Bhakti Testing 2025\Test Scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B3E1E7-B966-439C-A521-72D6E3EB9BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3392189-D821-47D7-91C7-C6B1E731FE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03F0EE33-2625-432D-947F-B404539E4D80}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -559,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED85EF84-1ADE-404A-ACB6-AE620E286501}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
